--- a/AAII_Financials/Yearly/SNVFF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNVFF_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>SNVFF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,51 +665,54 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -737,9 +740,12 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -767,9 +773,12 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -797,9 +806,12 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -832,18 +845,21 @@
       <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
+      <c r="I12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
       </c>
       <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
         <v>-200</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,44 +887,50 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>4300</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
-        <v>10300</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>9900</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>2400</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
+      <c r="D15" s="3">
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -923,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
         <v>100</v>
@@ -931,9 +953,12 @@
       <c r="K15" s="3">
         <v>100</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>100</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,38 +968,42 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="E17" s="3">
-        <v>5600</v>
+        <v>1400</v>
       </c>
       <c r="F17" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="G17" s="3">
-        <v>600</v>
-      </c>
       <c r="H17" s="3">
-        <v>11800</v>
+        <v>500</v>
       </c>
       <c r="I17" s="3">
-        <v>3100</v>
+        <v>11400</v>
       </c>
       <c r="J17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K17" s="3">
         <v>3200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6800</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -982,29 +1011,32 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-5600</v>
+        <v>-1400</v>
       </c>
       <c r="F18" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1100</v>
       </c>
-      <c r="G18" s="3">
-        <v>-600</v>
-      </c>
       <c r="H18" s="3">
-        <v>-11800</v>
+        <v>-500</v>
       </c>
       <c r="I18" s="3">
-        <v>-3100</v>
+        <v>-11400</v>
       </c>
       <c r="J18" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-3200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6800</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,8 +1049,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1026,29 +1059,32 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
-        <v>-800</v>
-      </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1067,18 +1103,21 @@
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-3700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1088,57 +1127,63 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1600</v>
+        <v>-800</v>
       </c>
       <c r="E23" s="3">
-        <v>-5700</v>
+        <v>-1400</v>
       </c>
       <c r="F23" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
-        <v>-12200</v>
-      </c>
       <c r="I23" s="3">
-        <v>-3900</v>
+        <v>-11800</v>
       </c>
       <c r="J23" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-3200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6800</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1166,9 +1211,12 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1600</v>
+        <v>-800</v>
       </c>
       <c r="E26" s="3">
-        <v>-5700</v>
+        <v>-1400</v>
       </c>
       <c r="F26" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3">
-        <v>-12200</v>
-      </c>
       <c r="I26" s="3">
-        <v>-3900</v>
+        <v>-11800</v>
       </c>
       <c r="J26" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-3200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6800</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1600</v>
+        <v>-800</v>
       </c>
       <c r="E27" s="3">
-        <v>-5700</v>
+        <v>-1400</v>
       </c>
       <c r="F27" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
-        <v>-12200</v>
-      </c>
       <c r="I27" s="3">
-        <v>-3900</v>
+        <v>-11800</v>
       </c>
       <c r="J27" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-3200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6700</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,39 +1343,45 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-400</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,9 +1442,12 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1386,59 +1455,65 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
-        <v>800</v>
-      </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1600</v>
+        <v>-1000</v>
       </c>
       <c r="E33" s="3">
-        <v>-5700</v>
+        <v>-1800</v>
       </c>
       <c r="F33" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
-        <v>-12200</v>
-      </c>
       <c r="I33" s="3">
-        <v>-3900</v>
+        <v>-11800</v>
       </c>
       <c r="J33" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-3200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6700</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1600</v>
+        <v>-1000</v>
       </c>
       <c r="E35" s="3">
-        <v>-5700</v>
+        <v>-1800</v>
       </c>
       <c r="F35" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
-        <v>-12200</v>
-      </c>
       <c r="I35" s="3">
-        <v>-3900</v>
+        <v>-11800</v>
       </c>
       <c r="J35" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-3200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6700</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,68 +1645,75 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1400</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>200</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1638,20 +1730,23 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
       </c>
       <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
         <v>800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>500</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1679,14 +1774,17 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -1698,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
@@ -1707,41 +1805,47 @@
         <v>100</v>
       </c>
       <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2100</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1757,51 +1861,57 @@
       <c r="G47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
         <v>600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>700</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
+      <c r="D48" s="3">
+        <v>1400</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
         <v>100</v>
       </c>
-      <c r="I48" s="3">
-        <v>11000</v>
-      </c>
       <c r="J48" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K48" s="3">
         <v>10100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12300</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1817,11 +1927,11 @@
       <c r="G49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H49" s="3">
-        <v>0</v>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J49" s="3">
         <v>100</v>
@@ -1829,9 +1939,12 @@
       <c r="K49" s="3">
         <v>100</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>100</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,9 +2005,12 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1901,27 +2020,30 @@
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
         <v>100</v>
       </c>
-      <c r="F54" s="3">
-        <v>2000</v>
-      </c>
       <c r="G54" s="3">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
         <v>700</v>
       </c>
-      <c r="I54" s="3">
-        <v>13600</v>
-      </c>
       <c r="J54" s="3">
+        <v>13100</v>
+      </c>
+      <c r="K54" s="3">
         <v>14700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14600</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,19 +2137,20 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F57" s="3">
         <v>1200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>500</v>
       </c>
       <c r="G57" s="3">
         <v>400</v>
@@ -2029,17 +2159,20 @@
         <v>400</v>
       </c>
       <c r="I57" s="3">
+        <v>400</v>
+      </c>
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2049,27 +2182,30 @@
       <c r="E58" s="3">
         <v>0</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2079,8 +2215,8 @@
       <c r="E59" s="3">
         <v>0</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
+      <c r="F59" s="3">
+        <v>0</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>4</v>
@@ -2094,23 +2230,26 @@
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="E60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F60" s="3">
         <v>1200</v>
-      </c>
-      <c r="F60" s="3">
-        <v>500</v>
       </c>
       <c r="G60" s="3">
         <v>400</v>
@@ -2119,22 +2258,25 @@
         <v>400</v>
       </c>
       <c r="I60" s="3">
+        <v>400</v>
+      </c>
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>600</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2157,9 +2299,12 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2187,9 +2332,12 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,20 +2431,23 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1400</v>
+        <v>2700</v>
       </c>
       <c r="E66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F66" s="3">
         <v>1200</v>
-      </c>
-      <c r="F66" s="3">
-        <v>500</v>
       </c>
       <c r="G66" s="3">
         <v>400</v>
@@ -2299,17 +2456,20 @@
         <v>400</v>
       </c>
       <c r="I66" s="3">
+        <v>400</v>
+      </c>
+      <c r="J66" s="3">
         <v>700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>700</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-63800</v>
+        <v>-63200</v>
       </c>
       <c r="E72" s="3">
-        <v>-62900</v>
+        <v>-61900</v>
       </c>
       <c r="F72" s="3">
-        <v>-57600</v>
+        <v>-60700</v>
       </c>
       <c r="G72" s="3">
-        <v>-56600</v>
+        <v>-55500</v>
       </c>
       <c r="H72" s="3">
-        <v>-56000</v>
+        <v>-54600</v>
       </c>
       <c r="I72" s="3">
-        <v>-43900</v>
+        <v>-54100</v>
       </c>
       <c r="J72" s="3">
+        <v>-42300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-40100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-36400</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-1400</v>
+        <v>-1100</v>
       </c>
       <c r="E76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>200</v>
       </c>
-      <c r="I76" s="3">
-        <v>12900</v>
-      </c>
       <c r="J76" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K76" s="3">
         <v>14200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13900</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1600</v>
+        <v>-1000</v>
       </c>
       <c r="E81" s="3">
-        <v>-5700</v>
+        <v>-1800</v>
       </c>
       <c r="F81" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
-        <v>-12200</v>
-      </c>
       <c r="I81" s="3">
-        <v>-3900</v>
+        <v>-11800</v>
       </c>
       <c r="J81" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-3200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6700</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,8 +2898,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2722,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
@@ -2730,9 +2928,12 @@
       <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>100</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1300</v>
+        <v>-800</v>
       </c>
       <c r="E89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1700</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-2900</v>
       </c>
       <c r="J89" s="3">
         <v>-2800</v>
       </c>
       <c r="K89" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="L89" s="3">
         <v>-4800</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="E91" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-300</v>
       </c>
       <c r="K91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L91" s="3">
         <v>-4100</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="E94" s="3">
-        <v>-2200</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-2100</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4200</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,8 +3291,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3088,9 +3321,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,39 +3420,45 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E100" s="3">
         <v>1200</v>
       </c>
-      <c r="E100" s="3">
-        <v>2600</v>
-      </c>
       <c r="F100" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G100" s="3">
         <v>900</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I100" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K100" s="3">
         <v>3000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>7300</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3227,48 +3475,54 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1200</v>
       </c>
-      <c r="I102" s="3">
-        <v>-1100</v>
-      </c>
       <c r="J102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K102" s="3">
         <v>1300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1600</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SNVFF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNVFF_YR_FIN.xlsx
@@ -903,7 +903,7 @@
         <v>4</v>
       </c>
       <c r="F14" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="G14" s="3">
         <v>200</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>9900</v>
+        <v>10400</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
@@ -978,22 +978,22 @@
         <v>800</v>
       </c>
       <c r="E17" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F17" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="G17" s="3">
         <v>1100</v>
       </c>
       <c r="H17" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I17" s="3">
-        <v>11400</v>
+        <v>11900</v>
       </c>
       <c r="J17" s="3">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="K17" s="3">
         <v>3200</v>
@@ -1011,22 +1011,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="F18" s="3">
-        <v>-5500</v>
+        <v>-5700</v>
       </c>
       <c r="G18" s="3">
         <v>-1100</v>
       </c>
       <c r="H18" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="I18" s="3">
-        <v>-11400</v>
+        <v>-11900</v>
       </c>
       <c r="J18" s="3">
-        <v>-3000</v>
+        <v>-3200</v>
       </c>
       <c r="K18" s="3">
         <v>-3200</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G20" s="3">
         <v>200</v>
@@ -1074,7 +1074,7 @@
         <v>-400</v>
       </c>
       <c r="J20" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>4</v>
       </c>
       <c r="J21" s="3">
-        <v>-3700</v>
+        <v>-3900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
@@ -1122,7 +1122,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>-1400</v>
       </c>
       <c r="F23" s="3">
-        <v>-5500</v>
+        <v>-5800</v>
       </c>
       <c r="G23" s="3">
         <v>-900</v>
@@ -1170,10 +1170,10 @@
         <v>-600</v>
       </c>
       <c r="I23" s="3">
-        <v>-11800</v>
+        <v>-12300</v>
       </c>
       <c r="J23" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="K23" s="3">
         <v>-3200</v>
@@ -1260,7 +1260,7 @@
         <v>-1400</v>
       </c>
       <c r="F26" s="3">
-        <v>-5500</v>
+        <v>-5800</v>
       </c>
       <c r="G26" s="3">
         <v>-900</v>
@@ -1269,10 +1269,10 @@
         <v>-600</v>
       </c>
       <c r="I26" s="3">
-        <v>-11800</v>
+        <v>-12300</v>
       </c>
       <c r="J26" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="K26" s="3">
         <v>-3200</v>
@@ -1293,7 +1293,7 @@
         <v>-1400</v>
       </c>
       <c r="F27" s="3">
-        <v>-5500</v>
+        <v>-5800</v>
       </c>
       <c r="G27" s="3">
         <v>-900</v>
@@ -1302,10 +1302,10 @@
         <v>-600</v>
       </c>
       <c r="I27" s="3">
-        <v>-11800</v>
+        <v>-12300</v>
       </c>
       <c r="J27" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="K27" s="3">
         <v>-3200</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
         <v>-200</v>
@@ -1470,7 +1470,7 @@
         <v>400</v>
       </c>
       <c r="J32" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>-1000</v>
       </c>
       <c r="E33" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="F33" s="3">
-        <v>-5500</v>
+        <v>-5800</v>
       </c>
       <c r="G33" s="3">
         <v>-900</v>
@@ -1500,10 +1500,10 @@
         <v>-600</v>
       </c>
       <c r="I33" s="3">
-        <v>-11800</v>
+        <v>-12300</v>
       </c>
       <c r="J33" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="K33" s="3">
         <v>-3200</v>
@@ -1554,10 +1554,10 @@
         <v>-1000</v>
       </c>
       <c r="E35" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="F35" s="3">
-        <v>-5500</v>
+        <v>-5800</v>
       </c>
       <c r="G35" s="3">
         <v>-900</v>
@@ -1566,10 +1566,10 @@
         <v>-600</v>
       </c>
       <c r="I35" s="3">
-        <v>-11800</v>
+        <v>-12300</v>
       </c>
       <c r="J35" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="K35" s="3">
         <v>-3200</v>
@@ -1670,7 +1670,7 @@
         <v>400</v>
       </c>
       <c r="J41" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K41" s="3">
         <v>2700</v>
@@ -1835,7 +1835,7 @@
         <v>600</v>
       </c>
       <c r="J46" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="K46" s="3">
         <v>3800</v>
@@ -1883,7 +1883,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>100</v>
       </c>
       <c r="J48" s="3">
-        <v>10600</v>
+        <v>11100</v>
       </c>
       <c r="K48" s="3">
         <v>10100</v>
@@ -2090,7 +2090,7 @@
         <v>100</v>
       </c>
       <c r="G54" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>700</v>
       </c>
       <c r="J54" s="3">
-        <v>13100</v>
+        <v>13700</v>
       </c>
       <c r="K54" s="3">
         <v>14700</v>
@@ -2144,7 +2144,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E57" s="3">
         <v>1700</v>
@@ -2153,7 +2153,7 @@
         <v>1200</v>
       </c>
       <c r="G57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H57" s="3">
         <v>400</v>
@@ -2249,10 +2249,10 @@
         <v>1700</v>
       </c>
       <c r="F60" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H60" s="3">
         <v>400</v>
@@ -2441,16 +2441,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="E66" s="3">
         <v>1700</v>
       </c>
       <c r="F66" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H66" s="3">
         <v>400</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-63200</v>
+        <v>-66200</v>
       </c>
       <c r="E72" s="3">
-        <v>-61900</v>
+        <v>-64800</v>
       </c>
       <c r="F72" s="3">
-        <v>-60700</v>
+        <v>-63600</v>
       </c>
       <c r="G72" s="3">
-        <v>-55500</v>
+        <v>-58200</v>
       </c>
       <c r="H72" s="3">
-        <v>-54600</v>
+        <v>-57300</v>
       </c>
       <c r="I72" s="3">
-        <v>-54100</v>
+        <v>-56600</v>
       </c>
       <c r="J72" s="3">
-        <v>-42300</v>
+        <v>-44300</v>
       </c>
       <c r="K72" s="3">
         <v>-40100</v>
@@ -2753,16 +2753,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="E76" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="F76" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="G76" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H76" s="3">
         <v>-300</v>
@@ -2771,7 +2771,7 @@
         <v>200</v>
       </c>
       <c r="J76" s="3">
-        <v>12400</v>
+        <v>13000</v>
       </c>
       <c r="K76" s="3">
         <v>14200</v>
@@ -2860,10 +2860,10 @@
         <v>-1000</v>
       </c>
       <c r="E81" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="F81" s="3">
-        <v>-5500</v>
+        <v>-5800</v>
       </c>
       <c r="G81" s="3">
         <v>-900</v>
@@ -2872,10 +2872,10 @@
         <v>-600</v>
       </c>
       <c r="I81" s="3">
-        <v>-11800</v>
+        <v>-12300</v>
       </c>
       <c r="J81" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="K81" s="3">
         <v>-3200</v>
@@ -3106,7 +3106,7 @@
         <v>-800</v>
       </c>
       <c r="E89" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="F89" s="3">
         <v>-400</v>
@@ -3121,7 +3121,7 @@
         <v>-1700</v>
       </c>
       <c r="J89" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="K89" s="3">
         <v>-2800</v>
@@ -3157,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -3256,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -3430,13 +3430,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="E100" s="3">
         <v>1200</v>
       </c>
       <c r="F100" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="G100" s="3">
         <v>900</v>
@@ -3448,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="K100" s="3">
         <v>3000</v>
@@ -3514,7 +3514,7 @@
         <v>-1200</v>
       </c>
       <c r="J102" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="K102" s="3">
         <v>1300</v>

--- a/AAII_Financials/Yearly/SNVFF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNVFF_YR_FIN.xlsx
@@ -903,7 +903,7 @@
         <v>4</v>
       </c>
       <c r="F14" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="G14" s="3">
         <v>200</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>10400</v>
+        <v>10500</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
@@ -981,7 +981,7 @@
         <v>1500</v>
       </c>
       <c r="F17" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="G17" s="3">
         <v>1100</v>
@@ -990,7 +990,7 @@
         <v>600</v>
       </c>
       <c r="I17" s="3">
-        <v>11900</v>
+        <v>12100</v>
       </c>
       <c r="J17" s="3">
         <v>3200</v>
@@ -1014,7 +1014,7 @@
         <v>-1500</v>
       </c>
       <c r="F18" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="G18" s="3">
         <v>-1100</v>
@@ -1023,7 +1023,7 @@
         <v>-600</v>
       </c>
       <c r="I18" s="3">
-        <v>-11900</v>
+        <v>-12100</v>
       </c>
       <c r="J18" s="3">
         <v>-3200</v>
@@ -1158,7 +1158,7 @@
         <v>-800</v>
       </c>
       <c r="E23" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="F23" s="3">
         <v>-5800</v>
@@ -1170,10 +1170,10 @@
         <v>-600</v>
       </c>
       <c r="I23" s="3">
-        <v>-12300</v>
+        <v>-12500</v>
       </c>
       <c r="J23" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="K23" s="3">
         <v>-3200</v>
@@ -1257,7 +1257,7 @@
         <v>-800</v>
       </c>
       <c r="E26" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="F26" s="3">
         <v>-5800</v>
@@ -1269,10 +1269,10 @@
         <v>-600</v>
       </c>
       <c r="I26" s="3">
-        <v>-12300</v>
+        <v>-12500</v>
       </c>
       <c r="J26" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="K26" s="3">
         <v>-3200</v>
@@ -1290,7 +1290,7 @@
         <v>-800</v>
       </c>
       <c r="E27" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="F27" s="3">
         <v>-5800</v>
@@ -1302,10 +1302,10 @@
         <v>-600</v>
       </c>
       <c r="I27" s="3">
-        <v>-12300</v>
+        <v>-12500</v>
       </c>
       <c r="J27" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="K27" s="3">
         <v>-3200</v>
@@ -1485,7 +1485,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="E33" s="3">
         <v>-1900</v>
@@ -1500,10 +1500,10 @@
         <v>-600</v>
       </c>
       <c r="I33" s="3">
-        <v>-12300</v>
+        <v>-12500</v>
       </c>
       <c r="J33" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="K33" s="3">
         <v>-3200</v>
@@ -1551,7 +1551,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="E35" s="3">
         <v>-1900</v>
@@ -1566,10 +1566,10 @@
         <v>-600</v>
       </c>
       <c r="I35" s="3">
-        <v>-12300</v>
+        <v>-12500</v>
       </c>
       <c r="J35" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="K35" s="3">
         <v>-3200</v>
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K47" s="3">
         <v>700</v>
@@ -1901,7 +1901,7 @@
         <v>100</v>
       </c>
       <c r="J48" s="3">
-        <v>11100</v>
+        <v>11200</v>
       </c>
       <c r="K48" s="3">
         <v>10100</v>
@@ -2081,7 +2081,7 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -2093,13 +2093,13 @@
         <v>2000</v>
       </c>
       <c r="H54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I54" s="3">
         <v>700</v>
       </c>
       <c r="J54" s="3">
-        <v>13700</v>
+        <v>13900</v>
       </c>
       <c r="K54" s="3">
         <v>14700</v>
@@ -2147,7 +2147,7 @@
         <v>1600</v>
       </c>
       <c r="E57" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F57" s="3">
         <v>1200</v>
@@ -2246,7 +2246,7 @@
         <v>1600</v>
       </c>
       <c r="E60" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F60" s="3">
         <v>1300</v>
@@ -2441,10 +2441,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="E66" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F66" s="3">
         <v>1300</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-66200</v>
+        <v>-67000</v>
       </c>
       <c r="E72" s="3">
-        <v>-64800</v>
+        <v>-65600</v>
       </c>
       <c r="F72" s="3">
-        <v>-63600</v>
+        <v>-64300</v>
       </c>
       <c r="G72" s="3">
-        <v>-58200</v>
+        <v>-58900</v>
       </c>
       <c r="H72" s="3">
+        <v>-57900</v>
+      </c>
+      <c r="I72" s="3">
         <v>-57300</v>
       </c>
-      <c r="I72" s="3">
-        <v>-56600</v>
-      </c>
       <c r="J72" s="3">
-        <v>-44300</v>
+        <v>-44800</v>
       </c>
       <c r="K72" s="3">
         <v>-40100</v>
@@ -2765,13 +2765,13 @@
         <v>1600</v>
       </c>
       <c r="H76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I76" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J76" s="3">
-        <v>13000</v>
+        <v>13200</v>
       </c>
       <c r="K76" s="3">
         <v>14200</v>
@@ -2857,7 +2857,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="E81" s="3">
         <v>-1900</v>
@@ -2872,10 +2872,10 @@
         <v>-600</v>
       </c>
       <c r="I81" s="3">
-        <v>-12300</v>
+        <v>-12500</v>
       </c>
       <c r="J81" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="K81" s="3">
         <v>-3200</v>
@@ -3118,7 +3118,7 @@
         <v>-400</v>
       </c>
       <c r="I89" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="J89" s="3">
         <v>-2900</v>
@@ -3151,7 +3151,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J94" s="3">
         <v>-200</v>
@@ -3433,7 +3433,7 @@
         <v>2400</v>
       </c>
       <c r="E100" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F100" s="3">
         <v>2600</v>
@@ -3511,7 +3511,7 @@
         <v>-400</v>
       </c>
       <c r="I102" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="J102" s="3">
         <v>-1100</v>

--- a/AAII_Financials/Yearly/SNVFF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNVFF_YR_FIN.xlsx
@@ -903,7 +903,7 @@
         <v>4</v>
       </c>
       <c r="F14" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="G14" s="3">
         <v>200</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>10500</v>
+        <v>10800</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
@@ -978,22 +978,22 @@
         <v>800</v>
       </c>
       <c r="E17" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F17" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="G17" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="H17" s="3">
         <v>600</v>
       </c>
       <c r="I17" s="3">
-        <v>12100</v>
+        <v>12400</v>
       </c>
       <c r="J17" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="K17" s="3">
         <v>3200</v>
@@ -1011,22 +1011,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="F18" s="3">
-        <v>-5800</v>
+        <v>-5900</v>
       </c>
       <c r="G18" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="H18" s="3">
         <v>-600</v>
       </c>
       <c r="I18" s="3">
-        <v>-12100</v>
+        <v>-12400</v>
       </c>
       <c r="J18" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="K18" s="3">
         <v>-3200</v>
@@ -1059,7 +1059,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>-100</v>
@@ -1107,7 +1107,7 @@
         <v>4</v>
       </c>
       <c r="J21" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
@@ -1161,19 +1161,19 @@
         <v>-1500</v>
       </c>
       <c r="F23" s="3">
-        <v>-5800</v>
+        <v>-6000</v>
       </c>
       <c r="G23" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="H23" s="3">
         <v>-600</v>
       </c>
       <c r="I23" s="3">
-        <v>-12500</v>
+        <v>-12800</v>
       </c>
       <c r="J23" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="K23" s="3">
         <v>-3200</v>
@@ -1260,19 +1260,19 @@
         <v>-1500</v>
       </c>
       <c r="F26" s="3">
-        <v>-5800</v>
+        <v>-6000</v>
       </c>
       <c r="G26" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="H26" s="3">
         <v>-600</v>
       </c>
       <c r="I26" s="3">
-        <v>-12500</v>
+        <v>-12800</v>
       </c>
       <c r="J26" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="K26" s="3">
         <v>-3200</v>
@@ -1293,19 +1293,19 @@
         <v>-1500</v>
       </c>
       <c r="F27" s="3">
-        <v>-5800</v>
+        <v>-6000</v>
       </c>
       <c r="G27" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="H27" s="3">
         <v>-600</v>
       </c>
       <c r="I27" s="3">
-        <v>-12500</v>
+        <v>-12800</v>
       </c>
       <c r="J27" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="K27" s="3">
         <v>-3200</v>
@@ -1356,7 +1356,7 @@
         <v>-200</v>
       </c>
       <c r="E29" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>4</v>
@@ -1455,7 +1455,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>100</v>
@@ -1488,22 +1488,22 @@
         <v>-1100</v>
       </c>
       <c r="E33" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="F33" s="3">
-        <v>-5800</v>
+        <v>-6000</v>
       </c>
       <c r="G33" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="H33" s="3">
         <v>-600</v>
       </c>
       <c r="I33" s="3">
-        <v>-12500</v>
+        <v>-12800</v>
       </c>
       <c r="J33" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="K33" s="3">
         <v>-3200</v>
@@ -1554,22 +1554,22 @@
         <v>-1100</v>
       </c>
       <c r="E35" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="F35" s="3">
-        <v>-5800</v>
+        <v>-6000</v>
       </c>
       <c r="G35" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="H35" s="3">
         <v>-600</v>
       </c>
       <c r="I35" s="3">
-        <v>-12500</v>
+        <v>-12800</v>
       </c>
       <c r="J35" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="K35" s="3">
         <v>-3200</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>100</v>
       </c>
       <c r="J48" s="3">
-        <v>11200</v>
+        <v>11600</v>
       </c>
       <c r="K48" s="3">
         <v>10100</v>
@@ -2090,7 +2090,7 @@
         <v>100</v>
       </c>
       <c r="G54" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="H54" s="3">
         <v>100</v>
@@ -2099,7 +2099,7 @@
         <v>700</v>
       </c>
       <c r="J54" s="3">
-        <v>13900</v>
+        <v>14300</v>
       </c>
       <c r="K54" s="3">
         <v>14700</v>
@@ -2144,13 +2144,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E57" s="3">
         <v>1800</v>
       </c>
       <c r="F57" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G57" s="3">
         <v>500</v>
@@ -2159,7 +2159,7 @@
         <v>400</v>
       </c>
       <c r="I57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J57" s="3">
         <v>700</v>
@@ -2243,7 +2243,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E60" s="3">
         <v>1800</v>
@@ -2258,7 +2258,7 @@
         <v>400</v>
       </c>
       <c r="I60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J60" s="3">
         <v>700</v>
@@ -2276,7 +2276,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2441,7 +2441,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="E66" s="3">
         <v>1800</v>
@@ -2456,7 +2456,7 @@
         <v>400</v>
       </c>
       <c r="I66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J66" s="3">
         <v>700</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-67000</v>
+        <v>-69000</v>
       </c>
       <c r="E72" s="3">
-        <v>-65600</v>
+        <v>-67500</v>
       </c>
       <c r="F72" s="3">
-        <v>-64300</v>
+        <v>-66300</v>
       </c>
       <c r="G72" s="3">
-        <v>-58900</v>
+        <v>-60600</v>
       </c>
       <c r="H72" s="3">
-        <v>-57900</v>
+        <v>-59700</v>
       </c>
       <c r="I72" s="3">
-        <v>-57300</v>
+        <v>-59000</v>
       </c>
       <c r="J72" s="3">
-        <v>-44800</v>
+        <v>-46200</v>
       </c>
       <c r="K72" s="3">
         <v>-40100</v>
@@ -2756,7 +2756,7 @@
         <v>-1200</v>
       </c>
       <c r="E76" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="F76" s="3">
         <v>-1200</v>
@@ -2771,7 +2771,7 @@
         <v>300</v>
       </c>
       <c r="J76" s="3">
-        <v>13200</v>
+        <v>13600</v>
       </c>
       <c r="K76" s="3">
         <v>14200</v>
@@ -2860,22 +2860,22 @@
         <v>-1100</v>
       </c>
       <c r="E81" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="F81" s="3">
-        <v>-5800</v>
+        <v>-6000</v>
       </c>
       <c r="G81" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="H81" s="3">
         <v>-600</v>
       </c>
       <c r="I81" s="3">
-        <v>-12500</v>
+        <v>-12800</v>
       </c>
       <c r="J81" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="K81" s="3">
         <v>-3200</v>
@@ -3112,7 +3112,7 @@
         <v>-400</v>
       </c>
       <c r="G89" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="H89" s="3">
         <v>-400</v>
@@ -3121,7 +3121,7 @@
         <v>-1800</v>
       </c>
       <c r="J89" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="K89" s="3">
         <v>-2800</v>
@@ -3157,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -3256,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -3430,16 +3430,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="E100" s="3">
         <v>1300</v>
       </c>
       <c r="F100" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="G100" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
@@ -3448,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="K100" s="3">
         <v>3000</v>
@@ -3499,7 +3499,7 @@
         <v>100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>

--- a/AAII_Financials/Yearly/SNVFF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNVFF_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>SNVFF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,57 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -743,9 +746,12 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -776,9 +782,12 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,9 +818,12 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -848,18 +861,21 @@
       <c r="I12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
+      <c r="J12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
       </c>
       <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
         <v>-200</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,9 +906,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -902,30 +921,33 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>4500</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
-        <v>10800</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>2400</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -948,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K15" s="3">
         <v>100</v>
@@ -956,9 +978,12 @@
       <c r="L15" s="3">
         <v>100</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>100</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,41 +994,45 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E17" s="3">
+        <v>900</v>
+      </c>
+      <c r="F17" s="3">
         <v>1600</v>
       </c>
-      <c r="F17" s="3">
-        <v>5900</v>
-      </c>
       <c r="G17" s="3">
+        <v>6200</v>
+      </c>
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
-        <v>12400</v>
-      </c>
       <c r="J17" s="3">
+        <v>13000</v>
+      </c>
+      <c r="K17" s="3">
         <v>3300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6800</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1011,32 +1040,35 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1600</v>
       </c>
-      <c r="F18" s="3">
-        <v>-5900</v>
-      </c>
       <c r="G18" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-1200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
-        <v>-12400</v>
-      </c>
       <c r="J18" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-3300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6800</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,8 +1082,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1062,29 +1095,32 @@
         <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-800</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1106,29 +1142,32 @@
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-4000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
@@ -1142,48 +1181,54 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-800</v>
+        <v>-1100</v>
       </c>
       <c r="E23" s="3">
-        <v>-1500</v>
+        <v>-900</v>
       </c>
       <c r="F23" s="3">
-        <v>-6000</v>
+        <v>-1600</v>
       </c>
       <c r="G23" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="H23" s="3">
         <v>-1000</v>
       </c>
-      <c r="H23" s="3">
-        <v>-600</v>
-      </c>
       <c r="I23" s="3">
-        <v>-12800</v>
+        <v>-700</v>
       </c>
       <c r="J23" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-4100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6800</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1214,9 +1259,12 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-800</v>
+        <v>-1100</v>
       </c>
       <c r="E26" s="3">
-        <v>-1500</v>
+        <v>-900</v>
       </c>
       <c r="F26" s="3">
-        <v>-6000</v>
+        <v>-1600</v>
       </c>
       <c r="G26" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="H26" s="3">
         <v>-1000</v>
       </c>
-      <c r="H26" s="3">
-        <v>-600</v>
-      </c>
       <c r="I26" s="3">
-        <v>-12800</v>
+        <v>-700</v>
       </c>
       <c r="J26" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-4100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6800</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-800</v>
+        <v>-1100</v>
       </c>
       <c r="E27" s="3">
-        <v>-1500</v>
+        <v>-900</v>
       </c>
       <c r="F27" s="3">
-        <v>-6000</v>
+        <v>-1600</v>
       </c>
       <c r="G27" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="H27" s="3">
         <v>-1000</v>
       </c>
-      <c r="H27" s="3">
-        <v>-600</v>
-      </c>
       <c r="I27" s="3">
-        <v>-12800</v>
+        <v>-700</v>
       </c>
       <c r="J27" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-4100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6700</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,21 +1403,24 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F29" s="3">
         <v>-500</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G29" s="3" t="s">
         <v>4</v>
       </c>
@@ -1373,15 +1433,18 @@
       <c r="J29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,9 +1511,12 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1458,29 +1527,32 @@
         <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>800</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1488,32 +1560,35 @@
         <v>-1100</v>
       </c>
       <c r="E33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2000</v>
       </c>
-      <c r="F33" s="3">
-        <v>-6000</v>
-      </c>
       <c r="G33" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="H33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
-        <v>-600</v>
-      </c>
       <c r="I33" s="3">
-        <v>-12800</v>
+        <v>-700</v>
       </c>
       <c r="J33" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-4100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6700</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,9 +1619,12 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1554,70 +1632,76 @@
         <v>-1100</v>
       </c>
       <c r="E35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2000</v>
       </c>
-      <c r="F35" s="3">
-        <v>-6000</v>
-      </c>
       <c r="G35" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="H35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
-        <v>-600</v>
-      </c>
       <c r="I35" s="3">
-        <v>-12800</v>
+        <v>-700</v>
       </c>
       <c r="J35" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-4100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6700</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,8 +1731,9 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1655,32 +1741,35 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1400</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1706,14 +1795,17 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>200</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1733,20 +1825,23 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>200</v>
+      </c>
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
-        <v>100</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>500</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1777,17 +1872,20 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -1799,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -1808,11 +1906,14 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1820,121 +1921,130 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
         <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
+        <v>700</v>
+      </c>
+      <c r="K46" s="3">
         <v>1900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2100</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
       </c>
       <c r="J47" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
         <v>700</v>
       </c>
       <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+        <v>700</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
         <v>100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12300</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
       </c>
       <c r="I49" s="3">
         <v>0</v>
       </c>
       <c r="J49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K49" s="3">
         <v>100</v>
@@ -1942,9 +2052,12 @@
       <c r="L49" s="3">
         <v>100</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>100</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,9 +2124,12 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2020,8 +2139,8 @@
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
@@ -2035,15 +2154,18 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,9 +2196,12 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2084,32 +2209,35 @@
         <v>1700</v>
       </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
         <v>100</v>
       </c>
-      <c r="G54" s="3">
-        <v>2100</v>
-      </c>
       <c r="H54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I54" s="3">
         <v>100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>14300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14600</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,52 +2267,56 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="E57" s="3">
         <v>1800</v>
       </c>
       <c r="F57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
@@ -2197,20 +2330,23 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>0</v>
+      <c r="D59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -2218,8 +2354,8 @@
       <c r="F59" s="3">
         <v>0</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
+      <c r="G59" s="3">
+        <v>0</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>4</v>
@@ -2233,54 +2369,60 @@
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1700</v>
+        <v>3400</v>
       </c>
       <c r="E60" s="3">
         <v>1800</v>
       </c>
       <c r="F60" s="3">
-        <v>1300</v>
+        <v>1900</v>
       </c>
       <c r="G60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>600</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>1300</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2302,32 +2444,35 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2335,9 +2480,12 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="E66" s="3">
-        <v>1800</v>
+        <v>3100</v>
       </c>
       <c r="F66" s="3">
-        <v>1300</v>
+        <v>1900</v>
       </c>
       <c r="G66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H66" s="3">
         <v>500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>700</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-69000</v>
+        <v>-73400</v>
       </c>
       <c r="E72" s="3">
-        <v>-67500</v>
+        <v>-72200</v>
       </c>
       <c r="F72" s="3">
-        <v>-66300</v>
+        <v>-70600</v>
       </c>
       <c r="G72" s="3">
-        <v>-60600</v>
+        <v>-69300</v>
       </c>
       <c r="H72" s="3">
-        <v>-59700</v>
+        <v>-63400</v>
       </c>
       <c r="I72" s="3">
-        <v>-59000</v>
+        <v>-62400</v>
       </c>
       <c r="J72" s="3">
+        <v>-61700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-46200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-40100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-36400</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-1200</v>
+        <v>-1700</v>
       </c>
       <c r="E76" s="3">
-        <v>-1800</v>
+        <v>-1300</v>
       </c>
       <c r="F76" s="3">
-        <v>-1200</v>
+        <v>-1900</v>
       </c>
       <c r="G76" s="3">
-        <v>1600</v>
+        <v>-1300</v>
       </c>
       <c r="H76" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I76" s="3">
         <v>-400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13900</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,47 +3000,53 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2860,32 +3054,35 @@
         <v>-1100</v>
       </c>
       <c r="E81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2000</v>
       </c>
-      <c r="F81" s="3">
-        <v>-6000</v>
-      </c>
       <c r="G81" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="H81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
-        <v>-600</v>
-      </c>
       <c r="I81" s="3">
-        <v>-12800</v>
+        <v>-700</v>
       </c>
       <c r="J81" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-4100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6700</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,8 +3096,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2923,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
@@ -2931,9 +3129,12 @@
       <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>100</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-800</v>
+        <v>-300</v>
       </c>
       <c r="E89" s="3">
-        <v>-1300</v>
+        <v>-900</v>
       </c>
       <c r="F89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
-        <v>-1800</v>
-      </c>
       <c r="J89" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-3000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4800</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-1600</v>
       </c>
       <c r="F91" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>-300</v>
       </c>
       <c r="L91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M91" s="3">
         <v>-4100</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-1600</v>
       </c>
       <c r="F94" s="3">
-        <v>-2300</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-2400</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4200</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,8 +3524,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3324,9 +3557,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,42 +3665,48 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2500</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
-        <v>1300</v>
+        <v>2600</v>
       </c>
       <c r="F100" s="3">
-        <v>2700</v>
+        <v>1400</v>
       </c>
       <c r="G100" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H100" s="3">
         <v>1000</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>2100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>7300</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3478,51 +3726,57 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
-        <v>-1300</v>
-      </c>
       <c r="J102" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1600</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SNVFF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNVFF_YR_FIN.xlsx
@@ -925,7 +925,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="H14" s="3">
         <v>200</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>11300</v>
+        <v>10700</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E17" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F17" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G17" s="3">
-        <v>6200</v>
+        <v>5800</v>
       </c>
       <c r="H17" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I17" s="3">
         <v>600</v>
       </c>
       <c r="J17" s="3">
-        <v>13000</v>
+        <v>12200</v>
       </c>
       <c r="K17" s="3">
         <v>3300</v>
@@ -1040,22 +1040,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="F18" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="G18" s="3">
-        <v>-6200</v>
+        <v>-5800</v>
       </c>
       <c r="H18" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="I18" s="3">
         <v>-600</v>
       </c>
       <c r="J18" s="3">
-        <v>-13000</v>
+        <v>-12200</v>
       </c>
       <c r="K18" s="3">
         <v>-3300</v>
@@ -1095,7 +1095,7 @@
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>-100</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="E23" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="F23" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="G23" s="3">
-        <v>-6300</v>
+        <v>-5900</v>
       </c>
       <c r="H23" s="3">
         <v>-1000</v>
       </c>
       <c r="I23" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="J23" s="3">
-        <v>-13400</v>
+        <v>-12600</v>
       </c>
       <c r="K23" s="3">
         <v>-4100</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="E26" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="F26" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="G26" s="3">
-        <v>-6300</v>
+        <v>-5900</v>
       </c>
       <c r="H26" s="3">
         <v>-1000</v>
       </c>
       <c r="I26" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="J26" s="3">
-        <v>-13400</v>
+        <v>-12600</v>
       </c>
       <c r="K26" s="3">
         <v>-4100</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="E27" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="F27" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="G27" s="3">
-        <v>-6300</v>
+        <v>-5900</v>
       </c>
       <c r="H27" s="3">
         <v>-1000</v>
       </c>
       <c r="I27" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="J27" s="3">
-        <v>-13400</v>
+        <v>-12600</v>
       </c>
       <c r="K27" s="3">
         <v>-4100</v>
@@ -1416,10 +1416,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="F29" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>4</v>
@@ -1527,7 +1527,7 @@
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>100</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="E33" s="3">
         <v>-1100</v>
       </c>
       <c r="F33" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="G33" s="3">
-        <v>-6300</v>
+        <v>-5900</v>
       </c>
       <c r="H33" s="3">
         <v>-1000</v>
       </c>
       <c r="I33" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="J33" s="3">
-        <v>-13400</v>
+        <v>-12600</v>
       </c>
       <c r="K33" s="3">
         <v>-4100</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="E35" s="3">
         <v>-1100</v>
       </c>
       <c r="F35" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="G35" s="3">
-        <v>-6300</v>
+        <v>-5900</v>
       </c>
       <c r="H35" s="3">
         <v>-1000</v>
       </c>
       <c r="I35" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="J35" s="3">
-        <v>-13400</v>
+        <v>-12600</v>
       </c>
       <c r="K35" s="3">
         <v>-4100</v>
@@ -1828,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
@@ -1921,7 +1921,7 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K46" s="3">
         <v>1900</v>
@@ -1990,10 +1990,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E48" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -2206,10 +2206,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1700</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1800</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -2218,7 +2218,7 @@
         <v>100</v>
       </c>
       <c r="H54" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="I54" s="3">
         <v>100</v>
@@ -2274,16 +2274,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F57" s="3">
         <v>1800</v>
       </c>
-      <c r="F57" s="3">
-        <v>1900</v>
-      </c>
       <c r="G57" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H57" s="3">
         <v>500</v>
@@ -2292,7 +2292,7 @@
         <v>400</v>
       </c>
       <c r="J57" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K57" s="3">
         <v>700</v>
@@ -2310,7 +2310,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -2382,16 +2382,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="E60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F60" s="3">
         <v>1800</v>
       </c>
-      <c r="F60" s="3">
-        <v>1900</v>
-      </c>
       <c r="G60" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H60" s="3">
         <v>500</v>
@@ -2400,7 +2400,7 @@
         <v>400</v>
       </c>
       <c r="J60" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K60" s="3">
         <v>700</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2598,16 +2598,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="E66" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="F66" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="G66" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H66" s="3">
         <v>500</v>
@@ -2616,7 +2616,7 @@
         <v>400</v>
       </c>
       <c r="J66" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K66" s="3">
         <v>700</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-73400</v>
+        <v>-69100</v>
       </c>
       <c r="E72" s="3">
-        <v>-72200</v>
+        <v>-67900</v>
       </c>
       <c r="F72" s="3">
-        <v>-70600</v>
+        <v>-66400</v>
       </c>
       <c r="G72" s="3">
-        <v>-69300</v>
+        <v>-65200</v>
       </c>
       <c r="H72" s="3">
-        <v>-63400</v>
+        <v>-59600</v>
       </c>
       <c r="I72" s="3">
-        <v>-62400</v>
+        <v>-58700</v>
       </c>
       <c r="J72" s="3">
-        <v>-61700</v>
+        <v>-58000</v>
       </c>
       <c r="K72" s="3">
         <v>-46200</v>
@@ -2938,19 +2938,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1700</v>
       </c>
-      <c r="E76" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-1900</v>
-      </c>
       <c r="G76" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="H76" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="I76" s="3">
         <v>-400</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="E81" s="3">
         <v>-1100</v>
       </c>
       <c r="F81" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="G81" s="3">
-        <v>-6300</v>
+        <v>-5900</v>
       </c>
       <c r="H81" s="3">
         <v>-1000</v>
       </c>
       <c r="I81" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="J81" s="3">
-        <v>-13400</v>
+        <v>-12600</v>
       </c>
       <c r="K81" s="3">
         <v>-4100</v>
@@ -3322,22 +3322,22 @@
         <v>-300</v>
       </c>
       <c r="E89" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="F89" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="G89" s="3">
         <v>-400</v>
       </c>
       <c r="H89" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="I89" s="3">
         <v>-400</v>
       </c>
       <c r="J89" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="K89" s="3">
         <v>-3000</v>
@@ -3374,13 +3374,13 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
@@ -3482,13 +3482,13 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -3678,16 +3678,16 @@
         <v>200</v>
       </c>
       <c r="E100" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="F100" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="G100" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="H100" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>4</v>
@@ -3753,7 +3753,7 @@
         <v>100</v>
       </c>
       <c r="F102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
@@ -3765,7 +3765,7 @@
         <v>-400</v>
       </c>
       <c r="J102" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="K102" s="3">
         <v>-1100</v>

--- a/AAII_Financials/Yearly/SNVFF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNVFF_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>SNVFF</t>
   </si>
@@ -925,7 +925,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="H14" s="3">
         <v>200</v>
@@ -1001,7 +1001,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E17" s="3">
         <v>800</v>
@@ -1010,16 +1010,16 @@
         <v>1500</v>
       </c>
       <c r="G17" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="H17" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="I17" s="3">
         <v>600</v>
       </c>
       <c r="J17" s="3">
-        <v>12200</v>
+        <v>12300</v>
       </c>
       <c r="K17" s="3">
         <v>3300</v>
@@ -1046,16 +1046,16 @@
         <v>-1500</v>
       </c>
       <c r="G18" s="3">
-        <v>-5800</v>
+        <v>-5900</v>
       </c>
       <c r="H18" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="I18" s="3">
         <v>-600</v>
       </c>
       <c r="J18" s="3">
-        <v>-12200</v>
+        <v>-12300</v>
       </c>
       <c r="K18" s="3">
         <v>-3300</v>
@@ -1197,7 +1197,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="E23" s="3">
         <v>-800</v>
@@ -1215,7 +1215,7 @@
         <v>-600</v>
       </c>
       <c r="J23" s="3">
-        <v>-12600</v>
+        <v>-12700</v>
       </c>
       <c r="K23" s="3">
         <v>-4100</v>
@@ -1305,7 +1305,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="E26" s="3">
         <v>-800</v>
@@ -1323,7 +1323,7 @@
         <v>-600</v>
       </c>
       <c r="J26" s="3">
-        <v>-12600</v>
+        <v>-12700</v>
       </c>
       <c r="K26" s="3">
         <v>-4100</v>
@@ -1341,7 +1341,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="E27" s="3">
         <v>-800</v>
@@ -1359,7 +1359,7 @@
         <v>-600</v>
       </c>
       <c r="J27" s="3">
-        <v>-12600</v>
+        <v>-12700</v>
       </c>
       <c r="K27" s="3">
         <v>-4100</v>
@@ -1557,7 +1557,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="E33" s="3">
         <v>-1100</v>
@@ -1575,7 +1575,7 @@
         <v>-600</v>
       </c>
       <c r="J33" s="3">
-        <v>-12600</v>
+        <v>-12700</v>
       </c>
       <c r="K33" s="3">
         <v>-4100</v>
@@ -1629,7 +1629,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="E35" s="3">
         <v>-1100</v>
@@ -1647,7 +1647,7 @@
         <v>-600</v>
       </c>
       <c r="J35" s="3">
-        <v>-12600</v>
+        <v>-12700</v>
       </c>
       <c r="K35" s="3">
         <v>-4100</v>
@@ -2283,7 +2283,7 @@
         <v>1800</v>
       </c>
       <c r="G57" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H57" s="3">
         <v>500</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2456,23 +2456,23 @@
       <c r="D62" s="3">
         <v>0</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-69100</v>
+        <v>-69500</v>
       </c>
       <c r="E72" s="3">
-        <v>-67900</v>
+        <v>-68300</v>
       </c>
       <c r="F72" s="3">
-        <v>-66400</v>
+        <v>-66900</v>
       </c>
       <c r="G72" s="3">
-        <v>-65200</v>
+        <v>-65600</v>
       </c>
       <c r="H72" s="3">
-        <v>-59600</v>
+        <v>-60000</v>
       </c>
       <c r="I72" s="3">
-        <v>-58700</v>
+        <v>-59100</v>
       </c>
       <c r="J72" s="3">
-        <v>-58000</v>
+        <v>-58400</v>
       </c>
       <c r="K72" s="3">
         <v>-46200</v>
@@ -2944,7 +2944,7 @@
         <v>-1200</v>
       </c>
       <c r="F76" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="G76" s="3">
         <v>-1200</v>
@@ -3051,7 +3051,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="E81" s="3">
         <v>-1100</v>
@@ -3069,7 +3069,7 @@
         <v>-600</v>
       </c>
       <c r="J81" s="3">
-        <v>-12600</v>
+        <v>-12700</v>
       </c>
       <c r="K81" s="3">
         <v>-4100</v>
@@ -3331,7 +3331,7 @@
         <v>-400</v>
       </c>
       <c r="H89" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="I89" s="3">
         <v>-400</v>

--- a/AAII_Financials/Yearly/SNVFF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNVFF_YR_FIN.xlsx
@@ -2800,7 +2800,7 @@
         <v>-68300</v>
       </c>
       <c r="F72" s="3">
-        <v>-66900</v>
+        <v>-66800</v>
       </c>
       <c r="G72" s="3">
         <v>-65600</v>
@@ -2809,7 +2809,7 @@
         <v>-60000</v>
       </c>
       <c r="I72" s="3">
-        <v>-59100</v>
+        <v>-59000</v>
       </c>
       <c r="J72" s="3">
         <v>-58400</v>

--- a/AAII_Financials/Yearly/SNVFF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNVFF_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>SNVFF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,57 +665,60 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -749,9 +752,12 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -785,9 +791,12 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -821,9 +830,12 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -864,18 +877,21 @@
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
+      <c r="K12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
       </c>
       <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
         <v>-200</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,14 +925,17 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>1400</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
@@ -924,30 +943,33 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>4500</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>10700</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>2400</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -973,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L15" s="3">
         <v>100</v>
@@ -981,9 +1003,12 @@
       <c r="M15" s="3">
         <v>100</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>100</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,44 +1020,48 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="E17" s="3">
         <v>800</v>
       </c>
       <c r="F17" s="3">
+        <v>800</v>
+      </c>
+      <c r="G17" s="3">
         <v>1500</v>
       </c>
-      <c r="G17" s="3">
-        <v>5900</v>
-      </c>
       <c r="H17" s="3">
-        <v>1200</v>
+        <v>5800</v>
       </c>
       <c r="I17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6800</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1043,32 +1072,35 @@
         <v>-800</v>
       </c>
       <c r="F18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1500</v>
       </c>
-      <c r="G18" s="3">
-        <v>-5900</v>
-      </c>
       <c r="H18" s="3">
-        <v>-1200</v>
+        <v>-5800</v>
       </c>
       <c r="I18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-12300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-6800</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,8 +1115,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1095,82 +1128,88 @@
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-800</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>-4000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>4</v>
@@ -1184,51 +1223,57 @@
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1100</v>
+        <v>-2000</v>
       </c>
       <c r="E23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1500</v>
       </c>
-      <c r="G23" s="3">
-        <v>-5900</v>
-      </c>
       <c r="H23" s="3">
-        <v>-1000</v>
+        <v>-5800</v>
       </c>
       <c r="I23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-12700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6800</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1262,9 +1307,12 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1100</v>
+        <v>-2000</v>
       </c>
       <c r="E26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1500</v>
       </c>
-      <c r="G26" s="3">
-        <v>-5900</v>
-      </c>
       <c r="H26" s="3">
-        <v>-1000</v>
+        <v>-5800</v>
       </c>
       <c r="I26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-12700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6800</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1100</v>
+        <v>-2000</v>
       </c>
       <c r="E27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1500</v>
       </c>
-      <c r="G27" s="3">
-        <v>-5900</v>
-      </c>
       <c r="H27" s="3">
-        <v>-1000</v>
+        <v>-5800</v>
       </c>
       <c r="I27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-12700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6700</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,24 +1463,27 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-200</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-400</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H29" s="3" t="s">
         <v>4</v>
       </c>
@@ -1436,15 +1496,18 @@
       <c r="K29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,9 +1580,12 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1527,68 +1596,74 @@
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>800</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1100</v>
+        <v>-2000</v>
       </c>
       <c r="E33" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="F33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1900</v>
       </c>
-      <c r="G33" s="3">
-        <v>-5900</v>
-      </c>
       <c r="H33" s="3">
-        <v>-1000</v>
+        <v>-5800</v>
       </c>
       <c r="I33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6700</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1100</v>
+        <v>-2000</v>
       </c>
       <c r="E35" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="F35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1900</v>
       </c>
-      <c r="G35" s="3">
-        <v>-5900</v>
-      </c>
       <c r="H35" s="3">
-        <v>-1000</v>
+        <v>-5800</v>
       </c>
       <c r="I35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6700</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,8 +1817,9 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1744,32 +1830,35 @@
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1400</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1798,14 +1887,17 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>200</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1828,20 +1920,23 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
       </c>
       <c r="L43" s="3">
+        <v>100</v>
+      </c>
+      <c r="M43" s="3">
         <v>800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>500</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1875,9 +1970,12 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1887,8 +1985,8 @@
       <c r="E45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -1900,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -1909,11 +2007,14 @@
         <v>100</v>
       </c>
       <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1924,32 +2025,35 @@
         <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2100</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1975,53 +2079,59 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="L47" s="3">
         <v>700</v>
       </c>
       <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+        <v>700</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
         <v>1500</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
       </c>
       <c r="H48" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
         <v>100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12300</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2047,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L49" s="3">
         <v>100</v>
@@ -2055,9 +2165,12 @@
       <c r="M49" s="3">
         <v>100</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>100</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,9 +2243,12 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2142,8 +2261,8 @@
       <c r="F52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
@@ -2157,15 +2276,18 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1700</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
       <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
         <v>100</v>
       </c>
-      <c r="H54" s="3">
-        <v>2100</v>
-      </c>
       <c r="I54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J54" s="3">
         <v>100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14600</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,58 +2397,62 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E57" s="3">
         <v>1800</v>
       </c>
-      <c r="E57" s="3">
-        <v>1700</v>
-      </c>
       <c r="F57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="G57" s="3">
-        <v>1300</v>
-      </c>
       <c r="H57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I57" s="3">
         <v>500</v>
-      </c>
-      <c r="I57" s="3">
-        <v>400</v>
       </c>
       <c r="J57" s="3">
         <v>400</v>
       </c>
       <c r="K57" s="3">
+        <v>400</v>
+      </c>
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E58" s="3">
         <v>1400</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
@@ -2333,23 +2466,26 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -2357,8 +2493,8 @@
       <c r="G59" s="3">
         <v>0</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
+      <c r="H59" s="3">
+        <v>0</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>4</v>
@@ -2372,48 +2508,54 @@
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="E60" s="3">
-        <v>1700</v>
+        <v>3100</v>
       </c>
       <c r="F60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G60" s="3">
         <v>1800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>500</v>
-      </c>
-      <c r="I60" s="3">
-        <v>400</v>
       </c>
       <c r="J60" s="3">
         <v>400</v>
       </c>
       <c r="K60" s="3">
+        <v>400</v>
+      </c>
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>600</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2421,10 +2563,10 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2447,9 +2589,12 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2483,9 +2628,12 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E66" s="3">
         <v>3200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>500</v>
-      </c>
-      <c r="I66" s="3">
-        <v>400</v>
       </c>
       <c r="J66" s="3">
         <v>400</v>
       </c>
       <c r="K66" s="3">
+        <v>400</v>
+      </c>
+      <c r="L66" s="3">
         <v>700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>700</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-69500</v>
+        <v>-69800</v>
       </c>
       <c r="E72" s="3">
-        <v>-68300</v>
+        <v>-67900</v>
       </c>
       <c r="F72" s="3">
-        <v>-66800</v>
+        <v>-66700</v>
       </c>
       <c r="G72" s="3">
-        <v>-65600</v>
+        <v>-65300</v>
       </c>
       <c r="H72" s="3">
-        <v>-60000</v>
+        <v>-64100</v>
       </c>
       <c r="I72" s="3">
-        <v>-59000</v>
+        <v>-58600</v>
       </c>
       <c r="J72" s="3">
+        <v>-57700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-58400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-46200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-40100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-36400</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1200</v>
       </c>
-      <c r="F76" s="3">
-        <v>-1800</v>
-      </c>
       <c r="G76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H76" s="3">
         <v>-1200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13900</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1100</v>
+        <v>-2000</v>
       </c>
       <c r="E81" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="F81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1900</v>
       </c>
-      <c r="G81" s="3">
-        <v>-5900</v>
-      </c>
       <c r="H81" s="3">
-        <v>-1000</v>
+        <v>-5800</v>
       </c>
       <c r="I81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6700</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,8 +3294,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3124,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
@@ -3132,9 +3330,12 @@
       <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>100</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
-        <v>-900</v>
-      </c>
       <c r="I89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4800</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="G91" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>-300</v>
       </c>
       <c r="M91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N91" s="3">
         <v>-4100</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="G94" s="3">
-        <v>-2300</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-2200</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4200</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,8 +3757,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3560,9 +3793,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,45 +3910,51 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1300</v>
       </c>
-      <c r="G100" s="3">
-        <v>2700</v>
-      </c>
       <c r="H100" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I100" s="3">
         <v>900</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>2100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>7300</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3729,54 +3977,60 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1600</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SNVFF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNVFF_YR_FIN.xlsx
@@ -935,7 +935,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
@@ -1200,7 +1200,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
         <v>300</v>
@@ -1251,10 +1251,10 @@
         <v>-1500</v>
       </c>
       <c r="H23" s="3">
-        <v>-5800</v>
+        <v>-5900</v>
       </c>
       <c r="I23" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="J23" s="3">
         <v>-600</v>
@@ -1368,10 +1368,10 @@
         <v>-1500</v>
       </c>
       <c r="H26" s="3">
-        <v>-5800</v>
+        <v>-5900</v>
       </c>
       <c r="I26" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="J26" s="3">
         <v>-600</v>
@@ -1407,10 +1407,10 @@
         <v>-1500</v>
       </c>
       <c r="H27" s="3">
-        <v>-5800</v>
+        <v>-5900</v>
       </c>
       <c r="I27" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="J27" s="3">
         <v>-600</v>
@@ -1635,16 +1635,16 @@
         <v>-1000</v>
       </c>
       <c r="F33" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="G33" s="3">
         <v>-1900</v>
       </c>
       <c r="H33" s="3">
-        <v>-5800</v>
+        <v>-5900</v>
       </c>
       <c r="I33" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="J33" s="3">
         <v>-600</v>
@@ -1713,16 +1713,16 @@
         <v>-1000</v>
       </c>
       <c r="F35" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="G35" s="3">
         <v>-1900</v>
       </c>
       <c r="H35" s="3">
-        <v>-5800</v>
+        <v>-5900</v>
       </c>
       <c r="I35" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="J35" s="3">
         <v>-600</v>
@@ -2404,7 +2404,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="E57" s="3">
         <v>1800</v>
@@ -2524,10 +2524,10 @@
         <v>3300</v>
       </c>
       <c r="E60" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="F60" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="G60" s="3">
         <v>1800</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-69800</v>
+        <v>-70500</v>
       </c>
       <c r="E72" s="3">
-        <v>-67900</v>
+        <v>-68500</v>
       </c>
       <c r="F72" s="3">
-        <v>-66700</v>
+        <v>-67400</v>
       </c>
       <c r="G72" s="3">
-        <v>-65300</v>
+        <v>-65900</v>
       </c>
       <c r="H72" s="3">
-        <v>-64100</v>
+        <v>-64700</v>
       </c>
       <c r="I72" s="3">
-        <v>-58600</v>
+        <v>-59200</v>
       </c>
       <c r="J72" s="3">
-        <v>-57700</v>
+        <v>-58200</v>
       </c>
       <c r="K72" s="3">
         <v>-58400</v>
@@ -3251,16 +3251,16 @@
         <v>-1000</v>
       </c>
       <c r="F81" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="G81" s="3">
         <v>-1900</v>
       </c>
       <c r="H81" s="3">
-        <v>-5800</v>
+        <v>-5900</v>
       </c>
       <c r="I81" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="J81" s="3">
         <v>-600</v>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>

--- a/AAII_Financials/Yearly/SNVFF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNVFF_YR_FIN.xlsx
@@ -935,7 +935,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
@@ -947,7 +947,7 @@
         <v>4</v>
       </c>
       <c r="H14" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="I14" s="3">
         <v>200</v>
@@ -1027,7 +1027,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="E17" s="3">
         <v>800</v>
@@ -1039,7 +1039,7 @@
         <v>1500</v>
       </c>
       <c r="H17" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="I17" s="3">
         <v>1100</v>
@@ -1078,7 +1078,7 @@
         <v>-1500</v>
       </c>
       <c r="H18" s="3">
-        <v>-5800</v>
+        <v>-5600</v>
       </c>
       <c r="I18" s="3">
         <v>-1100</v>
@@ -1200,7 +1200,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>300</v>
@@ -1248,13 +1248,13 @@
         <v>-800</v>
       </c>
       <c r="G23" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="H23" s="3">
-        <v>-5900</v>
+        <v>-5700</v>
       </c>
       <c r="I23" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="J23" s="3">
         <v>-600</v>
@@ -1365,13 +1365,13 @@
         <v>-800</v>
       </c>
       <c r="G26" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="H26" s="3">
-        <v>-5900</v>
+        <v>-5700</v>
       </c>
       <c r="I26" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="J26" s="3">
         <v>-600</v>
@@ -1404,13 +1404,13 @@
         <v>-800</v>
       </c>
       <c r="G27" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="H27" s="3">
-        <v>-5900</v>
+        <v>-5700</v>
       </c>
       <c r="I27" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="J27" s="3">
         <v>-600</v>
@@ -1635,16 +1635,16 @@
         <v>-1000</v>
       </c>
       <c r="F33" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="G33" s="3">
         <v>-1900</v>
       </c>
       <c r="H33" s="3">
-        <v>-5900</v>
+        <v>-5700</v>
       </c>
       <c r="I33" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="J33" s="3">
         <v>-600</v>
@@ -1713,16 +1713,16 @@
         <v>-1000</v>
       </c>
       <c r="F35" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="G35" s="3">
         <v>-1900</v>
       </c>
       <c r="H35" s="3">
-        <v>-5900</v>
+        <v>-5700</v>
       </c>
       <c r="I35" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="J35" s="3">
         <v>-600</v>
@@ -2337,7 +2337,7 @@
         <v>1600</v>
       </c>
       <c r="F54" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="G54" s="3">
         <v>0</v>
@@ -2349,7 +2349,7 @@
         <v>2000</v>
       </c>
       <c r="J54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K54" s="3">
         <v>700</v>
@@ -2404,22 +2404,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="E57" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="F57" s="3">
         <v>1600</v>
       </c>
       <c r="G57" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="H57" s="3">
         <v>1200</v>
       </c>
       <c r="I57" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J57" s="3">
         <v>400</v>
@@ -2446,7 +2446,7 @@
         <v>1500</v>
       </c>
       <c r="E58" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="E60" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="F60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G60" s="3">
         <v>1700</v>
       </c>
-      <c r="G60" s="3">
-        <v>1800</v>
-      </c>
       <c r="H60" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I60" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J60" s="3">
         <v>400</v>
@@ -2755,22 +2755,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="E66" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="F66" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="G66" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="H66" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I66" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J66" s="3">
         <v>400</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-70500</v>
+        <v>-68400</v>
       </c>
       <c r="E72" s="3">
-        <v>-68500</v>
+        <v>-66500</v>
       </c>
       <c r="F72" s="3">
-        <v>-67400</v>
+        <v>-65400</v>
       </c>
       <c r="G72" s="3">
-        <v>-65900</v>
+        <v>-64000</v>
       </c>
       <c r="H72" s="3">
-        <v>-64700</v>
+        <v>-62700</v>
       </c>
       <c r="I72" s="3">
-        <v>-59200</v>
+        <v>-57400</v>
       </c>
       <c r="J72" s="3">
-        <v>-58200</v>
+        <v>-56500</v>
       </c>
       <c r="K72" s="3">
         <v>-58400</v>
@@ -3123,10 +3123,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="E76" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="F76" s="3">
         <v>-1200</v>
@@ -3135,13 +3135,13 @@
         <v>-1700</v>
       </c>
       <c r="H76" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="I76" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="J76" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="K76" s="3">
         <v>300</v>
@@ -3251,16 +3251,16 @@
         <v>-1000</v>
       </c>
       <c r="F81" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="G81" s="3">
         <v>-1900</v>
       </c>
       <c r="H81" s="3">
-        <v>-5900</v>
+        <v>-5700</v>
       </c>
       <c r="I81" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="J81" s="3">
         <v>-600</v>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -3926,10 +3926,10 @@
         <v>200</v>
       </c>
       <c r="F100" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="G100" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H100" s="3">
         <v>2600</v>

--- a/AAII_Financials/Yearly/SNVFF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNVFF_YR_FIN.xlsx
@@ -947,7 +947,7 @@
         <v>4</v>
       </c>
       <c r="H14" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="I14" s="3">
         <v>200</v>
@@ -1036,16 +1036,16 @@
         <v>800</v>
       </c>
       <c r="G17" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H17" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="I17" s="3">
         <v>1100</v>
       </c>
       <c r="J17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K17" s="3">
         <v>12300</v>
@@ -1075,16 +1075,16 @@
         <v>-800</v>
       </c>
       <c r="G18" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="H18" s="3">
-        <v>-5600</v>
+        <v>-5400</v>
       </c>
       <c r="I18" s="3">
         <v>-1100</v>
       </c>
       <c r="J18" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="K18" s="3">
         <v>-12300</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>200</v>
@@ -1203,10 +1203,10 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1239,7 +1239,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="E23" s="3">
         <v>-1000</v>
@@ -1251,7 +1251,7 @@
         <v>-1400</v>
       </c>
       <c r="H23" s="3">
-        <v>-5700</v>
+        <v>-5500</v>
       </c>
       <c r="I23" s="3">
         <v>-900</v>
@@ -1356,7 +1356,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="E26" s="3">
         <v>-1000</v>
@@ -1368,7 +1368,7 @@
         <v>-1400</v>
       </c>
       <c r="H26" s="3">
-        <v>-5700</v>
+        <v>-5500</v>
       </c>
       <c r="I26" s="3">
         <v>-900</v>
@@ -1395,7 +1395,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="E27" s="3">
         <v>-1000</v>
@@ -1407,7 +1407,7 @@
         <v>-1400</v>
       </c>
       <c r="H27" s="3">
-        <v>-5700</v>
+        <v>-5500</v>
       </c>
       <c r="I27" s="3">
         <v>-900</v>
@@ -1602,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>-200</v>
@@ -1629,7 +1629,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="E33" s="3">
         <v>-1000</v>
@@ -1638,10 +1638,10 @@
         <v>-1000</v>
       </c>
       <c r="G33" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="H33" s="3">
-        <v>-5700</v>
+        <v>-5500</v>
       </c>
       <c r="I33" s="3">
         <v>-900</v>
@@ -1707,7 +1707,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="E35" s="3">
         <v>-1000</v>
@@ -1716,10 +1716,10 @@
         <v>-1000</v>
       </c>
       <c r="G35" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="H35" s="3">
-        <v>-5700</v>
+        <v>-5500</v>
       </c>
       <c r="I35" s="3">
         <v>-900</v>
@@ -2100,10 +2100,10 @@
         <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="F48" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -2112,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -2334,7 +2334,7 @@
         <v>100</v>
       </c>
       <c r="E54" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F54" s="3">
         <v>1600</v>
@@ -2346,7 +2346,7 @@
         <v>100</v>
       </c>
       <c r="I54" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="J54" s="3">
         <v>0</v>
@@ -2404,13 +2404,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E57" s="3">
         <v>1700</v>
       </c>
       <c r="F57" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G57" s="3">
         <v>1700</v>
@@ -2443,7 +2443,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E58" s="3">
         <v>1300</v>
@@ -2521,13 +2521,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="E60" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="F60" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G60" s="3">
         <v>1700</v>
@@ -2755,13 +2755,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="E66" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="F66" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="G66" s="3">
         <v>1700</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-68400</v>
+        <v>-65900</v>
       </c>
       <c r="E72" s="3">
-        <v>-66500</v>
+        <v>-64100</v>
       </c>
       <c r="F72" s="3">
-        <v>-65400</v>
+        <v>-63000</v>
       </c>
       <c r="G72" s="3">
-        <v>-64000</v>
+        <v>-61600</v>
       </c>
       <c r="H72" s="3">
-        <v>-62700</v>
+        <v>-60400</v>
       </c>
       <c r="I72" s="3">
-        <v>-57400</v>
+        <v>-55300</v>
       </c>
       <c r="J72" s="3">
-        <v>-56500</v>
+        <v>-54400</v>
       </c>
       <c r="K72" s="3">
         <v>-58400</v>
@@ -3123,16 +3123,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="E76" s="3">
         <v>-1500</v>
       </c>
       <c r="F76" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="G76" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="H76" s="3">
         <v>-1100</v>
@@ -3245,7 +3245,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="E81" s="3">
         <v>-1000</v>
@@ -3254,10 +3254,10 @@
         <v>-1000</v>
       </c>
       <c r="G81" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="H81" s="3">
-        <v>-5700</v>
+        <v>-5500</v>
       </c>
       <c r="I81" s="3">
         <v>-900</v>
@@ -3544,7 +3544,7 @@
         <v>-800</v>
       </c>
       <c r="G89" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="H89" s="3">
         <v>-400</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -3926,13 +3926,13 @@
         <v>200</v>
       </c>
       <c r="F100" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="G100" s="3">
         <v>1200</v>
       </c>
       <c r="H100" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="I100" s="3">
         <v>900</v>

--- a/AAII_Financials/Yearly/SNVFF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNVFF_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>SNVFF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,60 +665,63 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -755,9 +758,12 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -794,9 +800,12 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -833,9 +842,12 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -880,18 +893,21 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
+      <c r="L12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M12" s="3">
         <v>0</v>
       </c>
       <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
         <v>-200</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,48 +944,54 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>1400</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>4100</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>10700</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>2400</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -998,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M15" s="3">
         <v>100</v>
@@ -1006,9 +1028,12 @@
       <c r="N15" s="3">
         <v>100</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>100</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,47 +1046,51 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
         <v>1700</v>
-      </c>
-      <c r="E17" s="3">
-        <v>800</v>
       </c>
       <c r="F17" s="3">
         <v>800</v>
       </c>
       <c r="G17" s="3">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="H17" s="3">
-        <v>5400</v>
+        <v>1500</v>
       </c>
       <c r="I17" s="3">
+        <v>5600</v>
+      </c>
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6800</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1069,38 +1098,41 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-800</v>
+        <v>-1700</v>
       </c>
       <c r="F18" s="3">
         <v>-800</v>
       </c>
       <c r="G18" s="3">
-        <v>-1400</v>
+        <v>-800</v>
       </c>
       <c r="H18" s="3">
-        <v>-5400</v>
+        <v>-1500</v>
       </c>
       <c r="I18" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-6800</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,8 +1148,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1125,38 +1158,41 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-800</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1181,38 +1217,41 @@
       <c r="J21" s="3">
         <v>0</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>-4000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>4</v>
@@ -1226,54 +1265,60 @@
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1400</v>
       </c>
-      <c r="H23" s="3">
-        <v>-5500</v>
-      </c>
       <c r="I23" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6800</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1310,9 +1355,12 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1400</v>
       </c>
-      <c r="H26" s="3">
-        <v>-5500</v>
-      </c>
       <c r="I26" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6800</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1400</v>
       </c>
-      <c r="H27" s="3">
-        <v>-5500</v>
-      </c>
       <c r="I27" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6700</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,27 +1523,30 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-200</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-400</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I29" s="3" t="s">
         <v>4</v>
       </c>
@@ -1499,15 +1559,18 @@
       <c r="L29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,9 +1649,12 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1593,77 +1662,83 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>100</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>800</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1900</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-1000</v>
       </c>
       <c r="F33" s="3">
         <v>-1000</v>
       </c>
       <c r="G33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H33" s="3">
         <v>-1800</v>
       </c>
-      <c r="H33" s="3">
-        <v>-5500</v>
-      </c>
       <c r="I33" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6700</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1900</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-1000</v>
       </c>
       <c r="F35" s="3">
         <v>-1000</v>
       </c>
       <c r="G35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H35" s="3">
         <v>-1800</v>
       </c>
-      <c r="H35" s="3">
-        <v>-5500</v>
-      </c>
       <c r="I35" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6700</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,8 +1903,9 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1833,32 +1919,35 @@
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1400</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1890,14 +1979,17 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>200</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1923,20 +2015,23 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
       </c>
       <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
         <v>800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>500</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1973,9 +2068,12 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1988,8 +2086,8 @@
       <c r="F45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2001,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -2010,11 +2108,14 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2028,32 +2129,35 @@
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2100</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2082,17 +2186,20 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="M47" s="3">
         <v>700</v>
       </c>
       <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+        <v>700</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2100,38 +2207,41 @@
         <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
         <v>1400</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
       </c>
       <c r="I48" s="3">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
         <v>100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12300</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2160,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M49" s="3">
         <v>100</v>
@@ -2168,9 +2278,12 @@
       <c r="N49" s="3">
         <v>100</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>100</v>
+      </c>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,9 +2362,12 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2264,8 +2383,8 @@
       <c r="G52" s="3">
         <v>0</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
@@ -2279,15 +2398,18 @@
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,9 +2446,12 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2334,38 +2459,41 @@
         <v>100</v>
       </c>
       <c r="E54" s="3">
+        <v>100</v>
+      </c>
+      <c r="F54" s="3">
         <v>1500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1600</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
       <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
         <v>100</v>
       </c>
-      <c r="I54" s="3">
-        <v>1900</v>
-      </c>
       <c r="J54" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
         <v>700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>14600</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,28 +2527,29 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="E57" s="3">
         <v>1700</v>
       </c>
       <c r="F57" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="G57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H57" s="3">
         <v>1700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>400</v>
       </c>
       <c r="J57" s="3">
         <v>400</v>
@@ -2428,34 +2558,37 @@
         <v>400</v>
       </c>
       <c r="L57" s="3">
+        <v>400</v>
+      </c>
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F58" s="3">
         <v>1300</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
@@ -2469,15 +2602,18 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2487,8 +2623,8 @@
       <c r="E59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -2496,8 +2632,8 @@
       <c r="H59" s="3">
         <v>0</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
@@ -2511,32 +2647,35 @@
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3100</v>
       </c>
-      <c r="E60" s="3">
-        <v>2900</v>
-      </c>
       <c r="F60" s="3">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="G60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H60" s="3">
         <v>1700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>400</v>
       </c>
       <c r="J60" s="3">
         <v>400</v>
@@ -2545,17 +2684,20 @@
         <v>400</v>
       </c>
       <c r="L60" s="3">
+        <v>400</v>
+      </c>
+      <c r="M60" s="3">
         <v>700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>600</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2566,11 +2708,11 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>1200</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2592,9 +2734,12 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2631,9 +2776,12 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,29 +2902,32 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F66" s="3">
         <v>3100</v>
       </c>
-      <c r="E66" s="3">
-        <v>3000</v>
-      </c>
-      <c r="F66" s="3">
-        <v>2700</v>
-      </c>
       <c r="G66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H66" s="3">
         <v>1700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1200</v>
-      </c>
-      <c r="I66" s="3">
-        <v>400</v>
       </c>
       <c r="J66" s="3">
         <v>400</v>
@@ -2779,17 +2936,20 @@
         <v>400</v>
       </c>
       <c r="L66" s="3">
+        <v>400</v>
+      </c>
+      <c r="M66" s="3">
         <v>700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>700</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-65900</v>
+        <v>-68500</v>
       </c>
       <c r="E72" s="3">
-        <v>-64100</v>
+        <v>-67400</v>
       </c>
       <c r="F72" s="3">
-        <v>-63000</v>
+        <v>-65600</v>
       </c>
       <c r="G72" s="3">
-        <v>-61600</v>
+        <v>-64500</v>
       </c>
       <c r="H72" s="3">
-        <v>-60400</v>
+        <v>-63100</v>
       </c>
       <c r="I72" s="3">
-        <v>-55300</v>
+        <v>-61900</v>
       </c>
       <c r="J72" s="3">
+        <v>-56600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-54400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-58400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-46200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-40100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-36400</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-3000</v>
+        <v>-3900</v>
       </c>
       <c r="E76" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I76" s="3">
         <v>-1100</v>
       </c>
-      <c r="G76" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13900</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1900</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-1000</v>
       </c>
       <c r="F81" s="3">
         <v>-1000</v>
       </c>
       <c r="G81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H81" s="3">
         <v>-1800</v>
       </c>
-      <c r="H81" s="3">
-        <v>-5500</v>
-      </c>
       <c r="I81" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6700</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,8 +3492,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3325,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
@@ -3333,9 +3531,12 @@
       <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>100</v>
+      </c>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,9 +3741,12 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3538,38 +3754,41 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
-        <v>-1200</v>
-      </c>
       <c r="H89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4800</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-1400</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-2100</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>-300</v>
       </c>
       <c r="N91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O91" s="3">
         <v>-4100</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-1400</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-2100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4200</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,8 +3990,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3796,9 +4029,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,9 +4155,12 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3923,38 +4168,41 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>2200</v>
-      </c>
       <c r="G100" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H100" s="3">
         <v>1200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>900</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>2100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>7300</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3980,20 +4228,23 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4001,36 +4252,39 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1600</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SNVFF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNVFF_YR_FIN.xlsx
@@ -3140,7 +3140,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-68500</v>
+        <v>-68400</v>
       </c>
       <c r="E72" s="3">
         <v>-67400</v>
@@ -3149,7 +3149,7 @@
         <v>-65600</v>
       </c>
       <c r="G72" s="3">
-        <v>-64500</v>
+        <v>-64400</v>
       </c>
       <c r="H72" s="3">
         <v>-63100</v>
@@ -3311,7 +3311,7 @@
         <v>-3900</v>
       </c>
       <c r="E76" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="F76" s="3">
         <v>-1500</v>

--- a/AAII_Financials/Yearly/SNVFF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNVFF_YR_FIN.xlsx
@@ -969,7 +969,7 @@
         <v>4</v>
       </c>
       <c r="I14" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="J14" s="3">
         <v>200</v>
@@ -1053,7 +1053,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>1700</v>
@@ -1065,10 +1065,10 @@
         <v>800</v>
       </c>
       <c r="H17" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I17" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="J17" s="3">
         <v>1100</v>
@@ -1107,10 +1107,10 @@
         <v>-800</v>
       </c>
       <c r="H18" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="I18" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="J18" s="3">
         <v>-1100</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>200</v>
@@ -1248,7 +1248,7 @@
         <v>200</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>-1400</v>
       </c>
       <c r="I23" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="J23" s="3">
         <v>-900</v>
@@ -1422,7 +1422,7 @@
         <v>-1400</v>
       </c>
       <c r="I26" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="J26" s="3">
         <v>-900</v>
@@ -1464,7 +1464,7 @@
         <v>-1400</v>
       </c>
       <c r="I27" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="J27" s="3">
         <v>-900</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>-200</v>
@@ -1716,7 +1716,7 @@
         <v>-1800</v>
       </c>
       <c r="I33" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="J33" s="3">
         <v>-900</v>
@@ -1800,7 +1800,7 @@
         <v>-1800</v>
       </c>
       <c r="I35" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="J35" s="3">
         <v>-900</v>
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2474,7 +2474,7 @@
         <v>100</v>
       </c>
       <c r="J54" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="K54" s="3">
         <v>0</v>
@@ -2534,16 +2534,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="E57" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="F57" s="3">
         <v>1700</v>
       </c>
       <c r="G57" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="H57" s="3">
         <v>1700</v>
@@ -2576,10 +2576,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E58" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="F58" s="3">
         <v>1300</v>
@@ -2660,7 +2660,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="E60" s="3">
         <v>3100</v>
@@ -2912,16 +2912,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="E66" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="F66" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="G66" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="H66" s="3">
         <v>1700</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-68400</v>
+        <v>-67200</v>
       </c>
       <c r="E72" s="3">
-        <v>-67400</v>
+        <v>-66200</v>
       </c>
       <c r="F72" s="3">
-        <v>-65600</v>
+        <v>-64400</v>
       </c>
       <c r="G72" s="3">
-        <v>-64400</v>
+        <v>-63300</v>
       </c>
       <c r="H72" s="3">
-        <v>-63100</v>
+        <v>-61900</v>
       </c>
       <c r="I72" s="3">
-        <v>-61900</v>
+        <v>-60800</v>
       </c>
       <c r="J72" s="3">
-        <v>-56600</v>
+        <v>-55600</v>
       </c>
       <c r="K72" s="3">
         <v>-54400</v>
@@ -3308,7 +3308,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-3900</v>
+        <v>-3800</v>
       </c>
       <c r="E76" s="3">
         <v>-3000</v>
@@ -3317,10 +3317,10 @@
         <v>-1500</v>
       </c>
       <c r="G76" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="H76" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="I76" s="3">
         <v>-1100</v>
@@ -3454,7 +3454,7 @@
         <v>-1800</v>
       </c>
       <c r="I81" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="J81" s="3">
         <v>-900</v>
@@ -3763,7 +3763,7 @@
         <v>-800</v>
       </c>
       <c r="H89" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="I89" s="3">
         <v>-400</v>
@@ -4174,7 +4174,7 @@
         <v>200</v>
       </c>
       <c r="G100" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="H100" s="3">
         <v>1200</v>
